--- a/tables/AppendixC.xlsx
+++ b/tables/AppendixC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lenovo\Desktop\CASA-MSc-thesis\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCD6E69-402E-46D7-9190-BA66343A6DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EE850F-1B1B-4473-836C-D13517FC4697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>Category</t>
   </si>
@@ -105,118 +105,143 @@
     <t>0 = use buffer mean; 1 = use borough mean</t>
   </si>
   <si>
-    <t>NO₂ processing</t>
+    <t>Data source (read from .tif)</t>
+  </si>
+  <si>
+    <t>no2_sample_step</t>
+  </si>
+  <si>
+    <t>10 m</t>
+  </si>
+  <si>
+    <t>Spacing of sample points along the segment</t>
+  </si>
+  <si>
+    <t>no2_statistic</t>
+  </si>
+  <si>
+    <t>Average raster value over sampled points</t>
+  </si>
+  <si>
+    <t>nodata_handling</t>
+  </si>
+  <si>
+    <t>exclude</t>
+  </si>
+  <si>
+    <t>Exclude NoData pixels during aggregation</t>
+  </si>
+  <si>
+    <t>Natural-feature proximity</t>
+  </si>
+  <si>
+    <t>nature_source</t>
+  </si>
+  <si>
+    <t>OSM-extracted park / water / wood / grass</t>
+  </si>
+  <si>
+    <t>buffer_rings</t>
+  </si>
+  <si>
+    <t>[50, 40, 30, 20, 10, 1] m</t>
+  </si>
+  <si>
+    <t>Multiple concentric buffers from far to near</t>
+  </si>
+  <si>
+    <t>score_mapping</t>
+  </si>
+  <si>
+    <t>Far rings = lower score; near rings = higher score (near overwrites far)</t>
+  </si>
+  <si>
+    <t>See code mapping table for exact scores</t>
+  </si>
+  <si>
+    <t>override_rule</t>
+  </si>
+  <si>
+    <t>nearer overwrites farther</t>
+  </si>
+  <si>
+    <t>Scores from nearer rings override farther ones</t>
+  </si>
+  <si>
+    <t>Normalization &amp; composition</t>
+  </si>
+  <si>
+    <t>norm_method</t>
+  </si>
+  <si>
+    <t>min–max</t>
+  </si>
+  <si>
+    <t>Normalize all inputs to [0, 1]</t>
+  </si>
+  <si>
+    <t>no2_inverse</t>
+  </si>
+  <si>
+    <t>1 - minmax(NO₂)</t>
+  </si>
+  <si>
+    <t>Higher pollution → lower score; invert after min–max</t>
+  </si>
+  <si>
+    <t>weights</t>
+  </si>
+  <si>
+    <t>GVI = 0.5, NO₂ = 0.3, Natural = 0.2</t>
+  </si>
+  <si>
+    <t>Weights for the environmental perception index</t>
+  </si>
+  <si>
+    <t>env_index_range</t>
+  </si>
+  <si>
+    <t>0–1</t>
+  </si>
+  <si>
+    <t>Output is a continuous proportion value</t>
+  </si>
+  <si>
+    <r>
+      <t>NO2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> processing</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>no2_source</t>
-  </si>
-  <si>
-    <t>NO₂ raster (AQI/LAEI2025)</t>
-  </si>
-  <si>
-    <t>Data source (read from .tif)</t>
-  </si>
-  <si>
-    <t>no2_sample_step</t>
-  </si>
-  <si>
-    <t>10 m</t>
-  </si>
-  <si>
-    <t>Spacing of sample points along the segment</t>
-  </si>
-  <si>
-    <t>no2_statistic</t>
-  </si>
-  <si>
-    <t>Average raster value over sampled points</t>
-  </si>
-  <si>
-    <t>nodata_handling</t>
-  </si>
-  <si>
-    <t>exclude</t>
-  </si>
-  <si>
-    <t>Exclude NoData pixels during aggregation</t>
-  </si>
-  <si>
-    <t>Natural-feature proximity</t>
-  </si>
-  <si>
-    <t>nature_source</t>
-  </si>
-  <si>
-    <t>OSM-extracted park / water / wood / grass</t>
-  </si>
-  <si>
-    <t>buffer_rings</t>
-  </si>
-  <si>
-    <t>[50, 40, 30, 20, 10, 1] m</t>
-  </si>
-  <si>
-    <t>Multiple concentric buffers from far to near</t>
-  </si>
-  <si>
-    <t>score_mapping</t>
-  </si>
-  <si>
-    <t>Far rings = lower score; near rings = higher score (near overwrites far)</t>
-  </si>
-  <si>
-    <t>See code mapping table for exact scores</t>
-  </si>
-  <si>
-    <t>override_rule</t>
-  </si>
-  <si>
-    <t>nearer overwrites farther</t>
-  </si>
-  <si>
-    <t>Scores from nearer rings override farther ones</t>
-  </si>
-  <si>
-    <t>Normalization &amp; composition</t>
-  </si>
-  <si>
-    <t>norm_method</t>
-  </si>
-  <si>
-    <t>min–max</t>
-  </si>
-  <si>
-    <t>Normalize all inputs to [0, 1]</t>
-  </si>
-  <si>
-    <t>no2_inverse</t>
-  </si>
-  <si>
-    <t>1 - minmax(NO₂)</t>
-  </si>
-  <si>
-    <t>Higher pollution → lower score; invert after min–max</t>
-  </si>
-  <si>
-    <t>weights</t>
-  </si>
-  <si>
-    <t>GVI = 0.5, NO₂ = 0.3, Natural = 0.2</t>
-  </si>
-  <si>
-    <t>Weights for the environmental perception index</t>
-  </si>
-  <si>
-    <t>env_index_range</t>
-  </si>
-  <si>
-    <t>0–1</t>
-  </si>
-  <si>
-    <t>Output is a continuous proportion value</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>NO2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> raster (AQI/LAEI2025)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -224,7 +249,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +259,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -260,8 +293,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -545,10 +581,15 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -565,7 +606,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -578,10 +619,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>63</v>
-      </c>
+    <row r="3" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -593,7 +632,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
@@ -607,9 +646,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>63</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -621,9 +658,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>63</v>
-      </c>
+      <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -635,9 +670,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>63</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>21</v>
       </c>
@@ -649,9 +682,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>63</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -663,174 +694,163 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
       </c>
       <c r="D11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C13" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>63</v>
-      </c>
+      <c r="A14" s="1"/>
       <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" t="s">
         <v>41</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>42</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" t="s">
         <v>44</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>45</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D17" t="s">
         <v>50</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" t="s">
         <v>51</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>55</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" t="s">
         <v>57</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>58</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" t="s">
-        <v>62</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A20"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
